--- a/biology/Botanique/Alstroemeria/Alstroemeria.xlsx
+++ b/biology/Botanique/Alstroemeria/Alstroemeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alstroemeria est un genre de plantes, les alstrœmères ou alstrœméries, à fleurs vivaces, à racines tubéreuses, de la famille des Liliaceae, ou des Alstroemeriaceae selon la classification phylogénétique. Également surnommé « lis des Incas » ou « lis du Pérou ». Originaire d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre, nommé en hommage au baron Clas Alströmer (1736-1794), ami et disciple de Linné, fut décrit en 1732  par Johann Peter Falck dans sa thèse Planta Alströmeria dont Linné fut directeur.
 </t>
@@ -542,18 +556,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre comprend plus de 100 d'espèces, dont les principales cultivées sont :
 Alstroemeria aurea : le Lys des Incas
 Alstroemeria hybrida
-Alstroemeria haemantha Ruiz et Pav[1].
+Alstroemeria haemantha Ruiz et Pav.
 Alstroemeria ligtu L.
 Alstroemeria pelegrina L.
 Alstroemeria psittacina Lehm.
 Alstroemeria pulchella L. f.
-Alstroemeria revoluta Ruiz et Pav.Ruiz et Pav[1].
-Alstroemeria versicolorRuiz et Pav[1].</t>
+Alstroemeria revoluta Ruiz et Pav.Ruiz et Pav.
+Alstroemeria versicolorRuiz et Pav.</t>
         </is>
       </c>
     </row>
